--- a/va_facility_data_2025-02-20/Iola VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Iola%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Iola VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Iola%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rca18f38aa9ea459fbd7e3c8baec9412e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc3bfdf2a93b745c0943c7b19671a46be"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R23819efaad6540b8bf31ed2cbadea1eb"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re4d1e03341e34c8399a31184bb6ec1f1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc4873b73c2da410583b171a95bca9540"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5fe22f8a2217412d9585321298e8b63a"/>
   </x:sheets>
 </x:workbook>
 </file>
